--- a/biology/Médecine/Urgences_(film,_1988)/Urgences_(film,_1988).xlsx
+++ b/biology/Médecine/Urgences_(film,_1988)/Urgences_(film,_1988).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Urgences est un documentaire français de Raymond Depardon sorti en 1988 tourné aux urgences psychiatriques de l'Hôtel-Dieu de Paris. Huit ans après avoir filmé l'asile psychiatrique de San Clemente en Italie. Depardon filme dans Urgences, lors de moments de crises, un tout autre visage de la folie, plus brutale, extravertie.
 </t>
@@ -511,9 +523,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Raymond Depardon filme au plus près de la souffrance, des patients des Urgences psychiatriques de l'Hôtel-Dieu à Paris. Schizophrènes, alcooliques, paranoïaques, suicidaires, dépressifs, mythomane, la caméra de Depardon explore toutes les facettes de la folie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Raymond Depardon filme au plus près de la souffrance, des patients des Urgences psychiatriques de l'Hôtel-Dieu à Paris. Schizophrènes, alcooliques, paranoïaques, suicidaires, dépressifs, mythomane, la caméra de Depardon explore toutes les facettes de la folie.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisation : Raymond Depardon
 Production : Claudine Nougaret
@@ -554,7 +570,7 @@
 Pays d'origine :  France
 Langue : français
 Date de sortie :
- France : 24 janvier 1988[2]</t>
+ France : 24 janvier 1988</t>
         </is>
       </c>
     </row>
